--- a/BloodstreamAPI/testData/PostCustomFilter.xlsx
+++ b/BloodstreamAPI/testData/PostCustomFilter.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22624"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CCDFA33-BECF-400B-9EA0-CA75E306C8A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C357E92-BDD6-4F92-B171-2C25B0EC45C4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" tabRatio="715" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" tabRatio="715" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ConcApproveGrid" sheetId="24" r:id="rId1"/>
@@ -13,6 +13,7 @@
     <sheet name="TestGrid" sheetId="26" r:id="rId3"/>
     <sheet name="WorklistInfGrid" sheetId="27" r:id="rId4"/>
     <sheet name="WorklistConcGrid" sheetId="28" r:id="rId5"/>
+    <sheet name="ArchivedSamples" sheetId="29" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="10">
   <si>
     <t>EndPoint</t>
   </si>
@@ -51,6 +52,9 @@
   </si>
   <si>
     <t>WorklistConclusions</t>
+  </si>
+  <si>
+    <t>ArchiveSamples</t>
   </si>
 </sst>
 </file>
@@ -418,7 +422,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49BCC6FA-DE2E-4F4B-A5A9-89B1733852E0}">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
@@ -518,7 +522,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+      <selection sqref="A1:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -872,4 +876,52 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CF63B73-A572-4ADD-9564-98A19FA98ABD}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J31" sqref="J31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24" customWidth="1"/>
+    <col min="2" max="2" width="25.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="8"/>
+    </row>
+    <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="4"/>
+      <c r="B4" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>